--- a/SOO_paramInfo/DP1000_400C_SwiftVoce_NDBR50_curve1/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_400C_SwiftVoce_NDBR50_curve1/paramInfo.xlsx
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>

--- a/SOO_paramInfo/DP1000_400C_SwiftVoce_NDBR50_curve1/paramInfo.xlsx
+++ b/SOO_paramInfo/DP1000_400C_SwiftVoce_NDBR50_curve1/paramInfo.xlsx
@@ -543,10 +543,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
